--- a/tables/MRM_tests_summary_clean.xlsx
+++ b/tables/MRM_tests_summary_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mael\R_projects\ithomiini_convergence\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CBB3286-1BA5-447A-8715-0525F72E716C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01872964-C8C5-47F5-BFC9-EEC7F5505BDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">MRM_tests_summary!$B$2:$K$10</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
